--- a/biology/Médecine/La_Lutte_héroïque/La_Lutte_héroïque.xlsx
+++ b/biology/Médecine/La_Lutte_héroïque/La_Lutte_héroïque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Lutte_h%C3%A9ro%C3%AFque</t>
+          <t>La_Lutte_héroïque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Lutte héroïque (en allemand : Robert Koch, der Bekämpfer des Todes ; Robert Koch, le combattant de la Mort en français) est un film allemand réalisé par Hans Steinhoff, sorti en 1939.
 Il s'agit d'un film de propagande nazie, prenant pour prétexte une biographie du biologiste Robert Koch, découvreur du bacille de la tuberculose.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Lutte_h%C3%A9ro%C3%AFque</t>
+          <t>La_Lutte_héroïque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jeune médecin de campagne, le Dr Robert Koch, est désespéré de voir une épidémie de tuberculose emporter la vie de nombreux enfants dans son secteur. Déjà un enfant sur quatre est atteint par cette maladie insidieuse, et les parents doivent veiller sur ces enfants agonisants. Depuis des années, Koch recherche fébrilement l'agent infectieux de la tuberculose.
 Son travail suscite chez ses collègues l'envie et le rejet. On le considère comme un charlatan, un fabulateur, qui par ses suppositions et ses enquêtes fait fausse route. Les envieux sont un soi-disant guérisseur gourou d'une secte ou des professeurs blessés dans leur honneur comme le célèbre médecin Rudolf Virchow qui est aussi un homme politique. Ce membre influent du parlement conteste fortement l'hypothèse de Koch, selon laquelle l'agent de la tuberculose est un bacille.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Lutte_h%C3%A9ro%C3%AFque</t>
+          <t>La_Lutte_héroïque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Lutte héroïque
 Titre original : Robert Koch, der Bekämpfer des Todes
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Lutte_h%C3%A9ro%C3%AFque</t>
+          <t>La_Lutte_héroïque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Emil Jannings : Dr Robert Koch
 Werner Krauss : Dr Rudolf Virchow
@@ -648,7 +666,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Lutte_h%C3%A9ro%C3%AFque</t>
+          <t>La_Lutte_héroïque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -666,12 +684,14 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tournage a lieu du 20 mars 1939 à juin 1939. Il s'inspire du roman Robert Koch, Roman eines großen Lebens ("Robert Koch, le roman d'une grande vie") de Hellmuth Unger.
 Les deux grandes stars du cinéma des années 1920, Emil Jannings et Werner Krauss, se retrouvent pour la première fois dans un film parlant.
 La section nazie pour la culture apprécie grandement le film. Le film reçoit le Grand Prix de la Biennale de Venise en 1939. Largement soutenu, il obtient un grand succès mais de courte durée en raison de l'invasion de la Pologne le 1er septembre 1939.
-Des réalisateurs tels que Marcel L'Herbier, Marcel Carné, Georges Lacombe, Henri Decoin, Serge de Poligny, Léo Joannon et Christian-Jaque ont assisté à la première du film à Paris le 21 novembre 1940[1]
+Des réalisateurs tels que Marcel L'Herbier, Marcel Carné, Georges Lacombe, Henri Decoin, Serge de Poligny, Léo Joannon et Christian-Jaque ont assisté à la première du film à Paris le 21 novembre 1940
 </t>
         </is>
       </c>
@@ -682,7 +702,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_Lutte_h%C3%A9ro%C3%AFque</t>
+          <t>La_Lutte_héroïque</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -700,7 +720,9 @@
           <t>Article annexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Liste des longs métrages allemands créés sous le nazisme</t>
         </is>
